--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_9.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.6731329872420542</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9642779591401296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9902500836463899</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9738501082715144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.05636938288807869</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.009925415739417076</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.03451340645551682</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_22</t>
+          <t>model_10_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.8136900225301507</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.8460423068903125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9650006768277025</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.8898459338497586</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.2061902433633804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.2429452538490295</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.03562930971384048</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.1453846246004105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_21</t>
+          <t>model_10_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.8828588124210566</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9221932278272831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9383688514485632</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9283805755560042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.1296407729387283</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.122779093682766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.0627405121922493</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09452544897794724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_20</t>
+          <t>model_10_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9052290444307735</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9242002865580485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9400081740137053</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9302460583351643</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.1048835292458534</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1196119487285614</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.06107167899608612</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09206333011388779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_19</t>
+          <t>model_10_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9101162290291935</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9243855694987653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9423666186110607</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9312190184974655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.09947484731674194</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1193195730447769</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.0586707815527916</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09077919274568558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_18</t>
+          <t>model_10_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9142427645492304</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.8894638334525801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9418100035385419</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9089123457188047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.09490799158811569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1744260936975479</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.05923741310834885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.1202201992273331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_17</t>
+          <t>model_10_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9280227511191278</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9073425709233736</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9406227109147</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9197980917795423</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.07965760678052902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1462134271860123</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.06044608354568481</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.105852872133255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_16</t>
+          <t>model_10_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9337554629182967</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9230164725916787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9375792447538449</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9286143699434306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.07331318408250809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1214800179004669</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.06354433298110962</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09421688318252563</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_15</t>
+          <t>model_10_9_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9359938362635287</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9291807427249357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.91660063375879</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9249022875045758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.07083596289157867</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1117528006434441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08490055799484253</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09911619871854782</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_14</t>
+          <t>model_10_9_22</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9371250915051701</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9231506113735051</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9240739102826842</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9237976430731787</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06958399713039398</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1212683394551277</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07729276269674301</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.1005741506814957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_13</t>
+          <t>model_10_9_23</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9372992084207223</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9231389275941588</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9250119012714355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9241312148279113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06939129531383514</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1212867796421051</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07633788883686066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.1001338809728622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_23</t>
+          <t>model_10_9_24</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.937394534616672</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9234029459860633</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9251750076542413</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9243573539804931</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.0692858025431633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1208701506257057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07617184519767761</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09983541816473007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_12</t>
+          <t>model_10_9_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9374879410103973</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9341816456737193</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9155785644568722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9276968384486661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06918243318796158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1038613691926003</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08594102412462234</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09542787075042725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_10</t>
+          <t>model_10_9_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.937511017889053</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9360555593190121</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9149501353479504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9286545723003305</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06915689259767532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1009043306112289</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08658076077699661</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09416382759809494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_9</t>
+          <t>model_10_9_13</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9376725939094953</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9365106030120325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9143707358146593</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9287322711918287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06897807121276855</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1001862734556198</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08717059344053268</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09406127035617828</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_8</t>
+          <t>model_10_9_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9377787102141649</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9309741351546748</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9189640572159539</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9268952738814328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06886063516139984</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1089228242635727</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.0824945867061615</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09648579359054565</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_7</t>
+          <t>model_10_9_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9378472007313067</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9303846036080728</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9195966080904711</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9267510435523931</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06878483295440674</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1098531037569046</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08185065537691116</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09667615592479706</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_6</t>
+          <t>model_10_9_15</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9381102395834383</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9350288837742073</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9180690761916371</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9291367251454857</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06849373131990433</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1025244370102882</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08340568840503693</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09352746605873108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_5</t>
+          <t>model_10_9_17</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9381741652246556</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9332294909965185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9188703910562553</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9282889468723197</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06842298060655594</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1053638756275177</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08258993923664093</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.0946463868021965</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_4</t>
+          <t>model_10_9_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.938177415345669</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9315489676816726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9189931654486759</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.92727000389701</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06841938197612762</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.1080157309770584</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08246495574712753</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09599120914936066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_3</t>
+          <t>model_10_9_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9385606148622494</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.941694923576046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9240305949210121</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9355191770179158</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06799529492855072</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.09200542420148849</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07733685523271561</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.08510371297597885</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_2</t>
+          <t>model_10_9_9</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9385837610998704</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9423257850840271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9240968985131502</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9359434361580654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.0679696798324585</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.09100992232561111</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07726936042308807</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.08454376459121704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_1</t>
+          <t>model_10_9_8</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9388660547031141</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9422497585390088</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9326862738462551</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9390128075158672</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06765726208686829</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.09112988412380219</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.06852537393569946</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.08049271255731583</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_11</t>
+          <t>model_10_9_16</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9390298905720929</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9385558291782997</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.9180812375328996</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9313732255364282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06747595220804214</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.09695890545845032</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.08339329808950424</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.09057566523551941</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_9_24</t>
+          <t>model_10_9_21</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6147361772855691</v>
+        <v>0.9403143444439802</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.619980373281248</v>
+        <v>0.9380783388551716</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8664014040533349</v>
+        <v>0.923628156358609</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3477081725837414</v>
+        <v>0.9330842910288129</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4263735413551331</v>
+        <v>0.06605443358421326</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6016430854797363</v>
+        <v>0.09771239012479782</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1481957137584686</v>
+        <v>0.07774654030799866</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3882558345794678</v>
+        <v>0.08831734955310822</v>
       </c>
     </row>
   </sheetData>
